--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1157FAE6-2F4D-4B5B-9234-EFBF48FABD3D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
   <si>
     <t>Nr.</t>
   </si>
@@ -51,53 +52,17 @@
     <t>manus12</t>
   </si>
   <si>
-    <t>Der Text im Feld "Passwort" darf nicht in Klartext angezeigt werden</t>
-  </si>
-  <si>
-    <t>Der Text im Feld "Nutzername" wird in Klartext angezeigt</t>
-  </si>
-  <si>
     <t>Test12!</t>
-  </si>
-  <si>
-    <t>"Test12!" wird nicht in Klartext angezeigt</t>
-  </si>
-  <si>
-    <t>"manus12" wird nicht in Klartext angezeigt</t>
-  </si>
-  <si>
-    <t>Der Klick auf den Button "Einloggen" prüft in der Datenbank ob die Eingaben korrekt sind und loggt den User ein, wenn dies der Fall ist</t>
   </si>
   <si>
     <t>Nutzername: einFalscherNutzername
 Passwort: DASISTEINFALSCHESPASSWORT</t>
   </si>
   <si>
-    <t>Der User wird nicht eingeloggt</t>
-  </si>
-  <si>
     <t>Nutzername: manus12
 Passwort: Test12!</t>
   </si>
   <si>
-    <t>Der User wird eingeloggt. Das Hauptfenster öffnet sich</t>
-  </si>
-  <si>
-    <t>1. Loginfenster</t>
-  </si>
-  <si>
-    <t>2 Registrierenfenster</t>
-  </si>
-  <si>
-    <t>Der klick auf den Button "Registrieren" öffnet das Fenster zum Registrieren</t>
-  </si>
-  <si>
-    <t>Button "Registrieren" geklickt</t>
-  </si>
-  <si>
-    <t>Fenster zum Registrieren öffnet sich</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -114,9 +79,6 @@
   </si>
   <si>
     <t>2.6</t>
-  </si>
-  <si>
-    <t>Die Felder "Benutzername", "Vorname", "Nachname" &amp; "Mail" werden in Klartext angezeigt</t>
   </si>
   <si>
     <t>Benutzername: manus12
@@ -125,23 +87,303 @@
 Mail: lukas.manus@t-online.de</t>
   </si>
   <si>
-    <t>Informationen werden in Klartext angezeigt</t>
-  </si>
-  <si>
-    <t>Die Felder "Passwort" &amp; "Passwort wiederholen" werden nicht in Klartext angezeigt</t>
-  </si>
-  <si>
     <t>Passwort: Test12!
 Passwort wiederholen: Test12!</t>
   </si>
   <si>
-    <t>Informationen werden nicht in Klartext angezeigt</t>
+    <t>Erwartung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benutzername: </t>
+  </si>
+  <si>
+    <t>Fehlermeldung: Bitte geben Sie einen Nutzername ein.</t>
+  </si>
+  <si>
+    <t>Vorname:</t>
+  </si>
+  <si>
+    <t>Fehlermeldung: Bitte geben Sie einen Vornamen ein.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachname: </t>
+  </si>
+  <si>
+    <t>Fehlermeldung: Bitte geben Sie einen Nachnamen ein.</t>
+  </si>
+  <si>
+    <t>Mail:</t>
+  </si>
+  <si>
+    <t>Fehlermeldung: Bitte geben Sie eine Mailadresse ein.</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>Passwort:</t>
+  </si>
+  <si>
+    <t>Fehlermeldung: Bitte geben Sie ein Passwort ein.</t>
+  </si>
+  <si>
+    <t>Passwort wiederholen:</t>
+  </si>
+  <si>
+    <t>Passwort: kurz</t>
+  </si>
+  <si>
+    <t>Fehlermeldung: Das Passwort muss mindestens 6 Zeichen lang sein.</t>
+  </si>
+  <si>
+    <t>Passwort: ALLESCAPS</t>
+  </si>
+  <si>
+    <t>Passwort: alleslower</t>
+  </si>
+  <si>
+    <t>Fehlermeldung: Das Passwort muss mindestens einen Großbuchstaben enthalten.</t>
+  </si>
+  <si>
+    <t>Fehlermeldung: Das Passwort muss mindestens einen Kleinbuchstaben enthalten.</t>
+  </si>
+  <si>
+    <t>Passwort: EinPasswort</t>
+  </si>
+  <si>
+    <t>Fehlermeldung: Das Passwort muss mindestens ein gueltiges Sonderzeichen enthalten.
+Gueltige Sonderzeichen sind !, $, %, &amp;</t>
+  </si>
+  <si>
+    <t>Mail: dasisteinefalschemail.com</t>
+  </si>
+  <si>
+    <t>Fehlermeldung: Die angegebene Mailadresse folgt nicht dem validen Mailpattern.
+Beispiel: xxx.yyy@zzz.com</t>
+  </si>
+  <si>
+    <t>Benutzername: manus123456
+Vorname: Lukas
+Nachname: Manus
+Mail: lukas.manus1@t-online.de
+Passwort: Test12!
+Passwort wiederholen: Test12!</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Keine</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>Fehlermeldung: Bitte wiederholen Sie ihr Passwort.</t>
+  </si>
+  <si>
+    <t>3. "Zitate anzeigen"-Fenster</t>
+  </si>
+  <si>
+    <t>2. "Registrieren"-Fenster</t>
+  </si>
+  <si>
+    <t>1. "Login"-Fenster</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>Wenn der Button "Zitate anzeigen" gedrückt wird, werden alle Zitate angezeigt. Wenn Filter ausgewählt sind, werden diese angewendet.</t>
+  </si>
+  <si>
+    <t>Der Text im Feld "Nutzername" wird in Klartext angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Text im Feld "Passwort" darf nicht in Klartext angezeigt werden.</t>
+  </si>
+  <si>
+    <t>Der Klick auf den Button "Einloggen" prüft in der Datenbank ob die Eingaben korrekt sind und loggt den User ein, wenn dies der Fall ist.</t>
+  </si>
+  <si>
+    <t>Der klick auf den Button "Registrieren" öffnet das Fenster zum Registrieren.</t>
+  </si>
+  <si>
+    <t>Die Felder "Benutzername", "Vorname", "Nachname" &amp; "Mail" werden in Klartext angezeigt.</t>
+  </si>
+  <si>
+    <t>Die Felder "Passwort" &amp; "Passwort wiederholen" werden nicht in Klartext angezeigt.</t>
+  </si>
+  <si>
+    <t>Wenn der Benutzername leer ist, darf das Registrieren nicht erfolgreich sein und es wird eine Fehlermeldung ausgegeben.</t>
+  </si>
+  <si>
+    <t>Wenn der Vorname leer ist, darf das Registrieren nicht erfolgreich sein und es wird eine Fehlermeldung ausgegeben.</t>
+  </si>
+  <si>
+    <t>Wenn der Nachname leer ist, darf das Registrieren nicht erfolgreich sein und es wird eine Fehlermeldung ausgegeben.</t>
+  </si>
+  <si>
+    <t>Wenn die Mailadresse leer ist, darf das Registrieren nicht erfolgreich sein und es wird eine Fehlermeldung ausgegeben.</t>
+  </si>
+  <si>
+    <t>Wenn das Passwort leer ist, darf das Registrieren nicht erfolgreich sein und es wird eine Fehlermeldung ausgegeben.</t>
+  </si>
+  <si>
+    <t>Wenn das wiederholte Passwort leer ist, darf das Registrieren nicht erfolgreich sein und es wird eine Fehlermeldung ausgegeben.</t>
+  </si>
+  <si>
+    <t>Wenn das Passwort kürzer als 6 Zeichen ist, darf das Registrieren nicht erfolgreich sein und es wird eine Fehlermeldung ausgegeben.</t>
+  </si>
+  <si>
+    <t>Wenn das Passwort keinen Kleinbuchstaben enthält, darf das Registrieren nicht erfolgreich sein und es wird eine Fehlermeldung ausgegeben.</t>
+  </si>
+  <si>
+    <t>Wenn das Passwort keinen Großbuchstaben enthält, darf das Registrieren nicht erfolgreich sein und es wird eine Fehlermeldung ausgegeben.</t>
+  </si>
+  <si>
+    <t>Wenn das Passwort kein gültiges Sonderzeichen(!, $, %, &amp;) enthält, darf das Registrieren nicht erfolgreich sein und es wird eine Fehlermeldung ausgegeben.</t>
+  </si>
+  <si>
+    <t>Wenn die Mailadresse nicht dem gültigen Pattern folgt, darf das Registrieren nicht erfolgreich sein und es wird eine Fehlermeldung ausgegeben.</t>
+  </si>
+  <si>
+    <t>Alle Felder sind korrekt ausgefüllt und der Registrieren Button wird geklickt.</t>
+  </si>
+  <si>
+    <t>Die Comboboxen sind beim öffnen des Fensters mit den richtigen Werten gefüllt.</t>
+  </si>
+  <si>
+    <t>Wenn der Button "Zitat Hinzufügen gedrückt wird, öffnet sich das Fenster "Zitat Hinzufügen" und das Fenster "Zitate Anzeigen" wird geschlossen.</t>
+  </si>
+  <si>
+    <t>Wenn der Button "Account" gedrückt wird, öffnet sich das Fenster "Account" und das Fenster "Zitate anzeigen" wird geschlossen.</t>
+  </si>
+  <si>
+    <t>Wenn der Button "Zitat ändern" gedrückt wird und ein Zitat ausgewählt ist, welches vom Nutzer verfasst wurde, öffnet sich das Fenster "Account" und das Fenster "Account" wird geschlossen.</t>
+  </si>
+  <si>
+    <t>Wenn der Button "Zitat ändern" gedrückt wird und ein Zitat ausgewählt wurde, welches nicht vom Nutzer erstellt wurde, geschieht nichts.</t>
+  </si>
+  <si>
+    <t>Wenn der Button "Zitat ändern" gedrückt wird und kein Zitat ausgewählt wurde geschieht nichts.</t>
+  </si>
+  <si>
+    <t>Filter können aus den ComboBoxen ausgewählt werden und der Button "Zitate anzeigen" wird gedrückt.</t>
+  </si>
+  <si>
+    <t>Der Button "Zitate Anzeigen" wird gedrückt und ein Zitat, welches der Nutzer verfasst hat wird ausgewählt. Der Button "Zitat Ändern" wird gedrückt.</t>
+  </si>
+  <si>
+    <t>Der Button "Zitate Anzeigen" wird gedrückt und ein Zitat, welches der Nutzer nicht verfasst hat wird ausgewählt. Der Button "Zitat Ändern" wird gedrückt.</t>
+  </si>
+  <si>
+    <t>Der Button "Zitat ändern" wird gedrückt.</t>
+  </si>
+  <si>
+    <t>Button "Registrieren" geklickt.</t>
+  </si>
+  <si>
+    <t>Der Button "Zitat Hinzufügen" wird gedrückt.</t>
+  </si>
+  <si>
+    <t>Der Button "Account" wird gedrückt.</t>
+  </si>
+  <si>
+    <t>Auf Basis der Filter werden die richtigen Zitate angezeigt.</t>
+  </si>
+  <si>
+    <t>"manus12" wird nicht in Klartext angezeigt.</t>
+  </si>
+  <si>
+    <t>"Test12!" wird nicht in Klartext angezeigt.</t>
+  </si>
+  <si>
+    <t>Der User wird nicht eingeloggt.</t>
+  </si>
+  <si>
+    <t>Der User wird eingeloggt. Das Hauptfenster öffnet sich.</t>
+  </si>
+  <si>
+    <t>Fenster zum Registrieren öffnet sich.</t>
+  </si>
+  <si>
+    <t>Informationen werden in Klartext angezeigt.</t>
+  </si>
+  <si>
+    <t>Informationen werden nicht in Klartext angezeigt.</t>
+  </si>
+  <si>
+    <t>Wenn die Registrierung erfolgreich abgeschlossen wurde, wird das Registrieren Fenster geschlossen und das Login Fenster geöffnet.</t>
+  </si>
+  <si>
+    <t>Die richtigen Werte aus der Datenbank.</t>
+  </si>
+  <si>
+    <t>Das Fenster "Zitate Anzeigen" wird geschlossen und das Fenster "Zitate Hinzufügen" wird geöffnet.</t>
+  </si>
+  <si>
+    <t>Das Fenster "Zitate Anzeigen" wird geschlossen und das Fenster "Account" wird geöffnet.</t>
+  </si>
+  <si>
+    <t>Das Fenster "Zitate Anzeigen" wird geschlossen und das Fenster "Zitat ändern" wird geöffnet.</t>
+  </si>
+  <si>
+    <t>Es passiert nichts.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -188,6 +430,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -467,303 +719,485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="48.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>21</v>
-      </c>
+      <c r="B22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>22</v>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A22:A23" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
